--- a/electrical/control board/BOM 2-4-2019.xlsx
+++ b/electrical/control board/BOM 2-4-2019.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="21" documentId="8_{2C2F89E6-EA13-45C0-A826-71E967FD9E03}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{F5A93C89-F880-437B-ABA1-F554E8F6AC5B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{BA2553B7-1C83-421C-9FD5-9BB2A1BAB999}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{BA2553B7-1C83-421C-9FD5-9BB2A1BAB999}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -822,7 +822,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
